--- a/medicine/Psychotrope/Bourgogne_le_chapitre/Bourgogne_le_chapitre.xlsx
+++ b/medicine/Psychotrope/Bourgogne_le_chapitre/Bourgogne_le_chapitre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un le-chapitre ou bourgogne-le-chapitre[2] est un vin de Bourgogne[3]. Il s'agit d'une dénomination géographique au sein de l'appellation d'origine contrôlée bourgogne.
+Un le-chapitre ou bourgogne-le-chapitre est un vin de Bourgogne. Il s'agit d'une dénomination géographique au sein de l'appellation d'origine contrôlée bourgogne.
 Il est produit sur le climat Le Chapitre à Chenôve, à l'extrémité nord de la côte de Nuits, dans la Côte-d'Or.
 </t>
         </is>
@@ -515,19 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-L’édit de l'empereur romain Domitien, en 92 interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Bourgogne afin d’éviter la concurrence. Mais Probus annula cet édit en 280[4].
-Moyen Âge
-Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. En l'an 1395, Philippe le Hardi décida d’améliorer la qualité des vins et interdit la culture du gamay au profit du pinot noir dans ses terres[5]. Enfin en 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne[6]. En 1477, à la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
-Période moderne
-Période contemporaine
-XIXe siècle
-Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium[7]. 
-Arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte térébrant venu d'Amérique mis très fortement à mal le vignoble bourguignon[7]. Après de longues recherches, on finit par découvrir que seul le greffage permettrait à la vigne de pousser en présence du phylloxéra. 
-XXe siècle
-Le mildiou provoqua un désastre considérable en 1910. Apparition de l'enjambeur dans les années 1960-70, qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique etc.).
-XXIe siècle
-Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives[8].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édit de l'empereur romain Domitien, en 92 interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Bourgogne afin d’éviter la concurrence. Mais Probus annula cet édit en 280.
 </t>
         </is>
       </c>
@@ -553,15 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie et orographie
-Climatologie
-Pour la ville de Dijon (316 m), les valeurs climatiques jusqu'à 1990 :
-Source : Infoclimat : Dijon (????-1990)[9]
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. En l'an 1395, Philippe le Hardi décida d’améliorer la qualité des vins et interdit la culture du gamay au profit du pinot noir dans ses terres. Enfin en 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne. En 1477, à la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
 </t>
         </is>
       </c>
@@ -587,24 +596,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur la commune de Chenôve. Il comprend une superficie de 5,24 hectares[10].
-Lieux-dits
-Encépagement
-Le pinot noir compose exclusivement les vins rouges et vins rosés de l'AOC. Il est constitué de petites grappes denses, en forme de cône de pin[11] composées de grains ovoïdes, de couleur bleu sombre[11]. C'est un cépage délicat, qui est sensible aux principales maladies et en particulier au mildiou, au rougeot parasitaire, à la pourriture grise (sur grappes et sur feuilles), et au cicadelles[12]. Ce cépage, qui nécessite des ébourgeonnages soignés, a tendance à produire un nombre important de grapillons[12]. Il profite pleinement du cycle végétatif pour mûrir en première époque. Le potentiel d'accumulation des sucres est élevé pour une acidité juste moyenne et parfois insuffisante à maturité. Les vins sont assez puissant, riches, colorés, de garde[13]. Ils sont moyennement tanniques en général.
-Le chardonnay compose les vins blancs de l'AOC. Ses grappes sont relativement petites, cylindriques, moins denses que celles du pinot noir[14], constituées de grains irréguliers, assez petits, de couleur jaune doré[14]. De maturation de première époque comme le pinot noir, il s'accommode mieux d'une humidité de fin de saison avec une meilleure résistance à la pourriture s'il n'est pas en situation de forte vigueur. Il est sensible à l'oïdium et à la flavescence dorée. Il débourre un peu avant le pinot noir, ce qui le rend également sensible aux gelées printanières. Les teneurs en sucre des baies peuvent atteindre des niveaux élevés tout en conservant une acidité importante, ce qui permet d'obtenir des vins particulièrement bien équilibrés, puissants et amples, avec beaucoup de gras et de volume[12].
-Méthodes culturales
-Travail manuel
-Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux[15]. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements[15]. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants[15]. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
-Travail mécanique
-L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis)[15]. De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
-Rendements
-Les rendements sont de l'ordre de 55 hectolitres par hectare pour les vins rouges et rosés, et 60 hectolitres par hectare pour les vins blancs[16].
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium. 
+Arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte térébrant venu d'Amérique mis très fortement à mal le vignoble bourguignon. Après de longues recherches, on finit par découvrir que seul le greffage permettrait à la vigne de pousser en présence du phylloxéra. 
 </t>
         </is>
       </c>
@@ -630,22 +638,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vins</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Titres alcoométriques volumique minimal et maximal
-Vinification et élevage
-Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
-Vinification en rouge
-La récolte des raisins se fait à maturité et de façon manuelle ou mécanique. La vendange manuelle est le plus souvent triée, soit à la vigne soit à la cave avec une table de tri, ce qui permet d'enlever les grappes pourries ou insuffisamment mûres[15]. La vendange manuelle est généralement éraflée puis mise en cuve. Une macération pré-fermentaire à froid est quelquefois pratiquée. La fermentation alcoolique peut démarrer, le plus souvent après un levurage. Commence alors le travail d'extraction des polyphénols (tanins, anthocyanes) et autres éléments qualitatifs du raisin (polysaccharides etc.)[15]. L'extraction se faisait par pigeage, opération qui consiste à enfoncer le chapeau de marc dans le jus en fermentation à l'aide d'un outil en bois ou aujourd'hui d'un robot pigeur hydraulique. Plus couramment, l'extraction est conduite par des remontages, opération qui consiste à pomper le jus depuis le bas de la cuve pour arroser le chapeau de marc et ainsi lessiver les composants qualitatifs du raisin. Les températures de fermentation alcoolique peuvent être plus ou moins élevées suivant les pratiques de chaque vinificateur avec une moyenne générale de 28 à 35 degrés au maximum de la fermentation[15]. La chaptalisation est réalisée si le degré naturel est insuffisant : cette pratique est réglementée[15]. À l'issue de la fermentation alcoolique suit l'opération de décuvage qui donne le vin de goutte et le vin de presse. La fermentation malolactique se déroule après mais est dépendante de la température. Le vin est soutiré et mis en fût ou cuve pour son élevage. L'élevage se poursuit pendant plusieurs mois (12 à 24 mois)[15] puis le vin est collé, filtré et mis en bouteilles.
-Vinification en blanc
-Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes[15]. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter[15]. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés)[15]. La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en Fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies[15]. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides[15]. La mise en bouteille clôture l'opération.
-Vinification en rosé
-Récolte manuelle ou mécanique avec du pinot noir. Le raisin est parfois trié. Deux méthodes sont utilisées avec soit le pressurage (rosé de pressurage) soit une mise en cuve de la vendange pour un début de macération : c'est la saignée (rosé de saignée), effectuée avec le tirage du jus de la cuve[17]. La fermentation alcoolique se passe en cuve comme pour le blanc avec suivi de température, chaptalisation, etc. La fermentation malolactique suit. L'élevage se passe en cuve, parfois en fût). Enfin, le vin est filtré et mis en bouteille.
-Terroir et vins
-Gastronomie, garde et température de service</t>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mildiou provoqua un désastre considérable en 1910. Apparition de l'enjambeur dans les années 1960-70, qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique etc.).
+</t>
         </is>
       </c>
     </row>
@@ -670,15 +679,488 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la ville de Dijon (316 m), les valeurs climatiques jusqu'à 1990 :
+Source : Infoclimat : Dijon (????-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la commune de Chenôve. Il comprend une superficie de 5,24 hectares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pinot noir compose exclusivement les vins rouges et vins rosés de l'AOC. Il est constitué de petites grappes denses, en forme de cône de pin composées de grains ovoïdes, de couleur bleu sombre. C'est un cépage délicat, qui est sensible aux principales maladies et en particulier au mildiou, au rougeot parasitaire, à la pourriture grise (sur grappes et sur feuilles), et au cicadelles. Ce cépage, qui nécessite des ébourgeonnages soignés, a tendance à produire un nombre important de grapillons. Il profite pleinement du cycle végétatif pour mûrir en première époque. Le potentiel d'accumulation des sucres est élevé pour une acidité juste moyenne et parfois insuffisante à maturité. Les vins sont assez puissant, riches, colorés, de garde. Ils sont moyennement tanniques en général.
+Le chardonnay compose les vins blancs de l'AOC. Ses grappes sont relativement petites, cylindriques, moins denses que celles du pinot noir, constituées de grains irréguliers, assez petits, de couleur jaune doré. De maturation de première époque comme le pinot noir, il s'accommode mieux d'une humidité de fin de saison avec une meilleure résistance à la pourriture s'il n'est pas en situation de forte vigueur. Il est sensible à l'oïdium et à la flavescence dorée. Il débourre un peu avant le pinot noir, ce qui le rend également sensible aux gelées printanières. Les teneurs en sucre des baies peuvent atteindre des niveaux élevés tout en conservant une acidité importante, ce qui permet d'obtenir des vins particulièrement bien équilibrés, puissants et amples, avec beaucoup de gras et de volume.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Travail manuel</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Travail mécanique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis). De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rendements sont de l'ordre de 55 hectolitres par hectare pour les vins rouges et rosés, et 60 hectolitres par hectare pour les vins blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques volumique minimal et maximal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Vinification en rouge</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte des raisins se fait à maturité et de façon manuelle ou mécanique. La vendange manuelle est le plus souvent triée, soit à la vigne soit à la cave avec une table de tri, ce qui permet d'enlever les grappes pourries ou insuffisamment mûres. La vendange manuelle est généralement éraflée puis mise en cuve. Une macération pré-fermentaire à froid est quelquefois pratiquée. La fermentation alcoolique peut démarrer, le plus souvent après un levurage. Commence alors le travail d'extraction des polyphénols (tanins, anthocyanes) et autres éléments qualitatifs du raisin (polysaccharides etc.). L'extraction se faisait par pigeage, opération qui consiste à enfoncer le chapeau de marc dans le jus en fermentation à l'aide d'un outil en bois ou aujourd'hui d'un robot pigeur hydraulique. Plus couramment, l'extraction est conduite par des remontages, opération qui consiste à pomper le jus depuis le bas de la cuve pour arroser le chapeau de marc et ainsi lessiver les composants qualitatifs du raisin. Les températures de fermentation alcoolique peuvent être plus ou moins élevées suivant les pratiques de chaque vinificateur avec une moyenne générale de 28 à 35 degrés au maximum de la fermentation. La chaptalisation est réalisée si le degré naturel est insuffisant : cette pratique est réglementée. À l'issue de la fermentation alcoolique suit l'opération de décuvage qui donne le vin de goutte et le vin de presse. La fermentation malolactique se déroule après mais est dépendante de la température. Le vin est soutiré et mis en fût ou cuve pour son élevage. L'élevage se poursuit pendant plusieurs mois (12 à 24 mois) puis le vin est collé, filtré et mis en bouteilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés). La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en Fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides. La mise en bouteille clôture l'opération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vinification en rosé</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récolte manuelle ou mécanique avec du pinot noir. Le raisin est parfois trié. Deux méthodes sont utilisées avec soit le pressurage (rosé de pressurage) soit une mise en cuve de la vendange pour un début de macération : c'est la saignée (rosé de saignée), effectuée avec le tirage du jus de la cuve. La fermentation alcoolique se passe en cuve comme pour le blanc avec suivi de température, chaptalisation, etc. La fermentation malolactique suit. L'élevage se passe en cuve, parfois en fût). Enfin, le vin est filtré et mis en bouteille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne_le_chapitre</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Structure des exploitations
-Commercialisation
-Les producteurs de l'appellation
-Louis Jadot ( Négociant ) à Beaune propose une Cuvée de Bourgogne Le Chapitre Rouge issu  Domaine Gagey /
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Jadot ( Négociant ) à Beaune propose une Cuvée de Bourgogne Le Chapitre Rouge issu  Domaine Gagey /
 Le Domaine René Bouvier de Gevrey - Chambertin propose deux Cuvées Bourgogne le Chapitre , l'une sous le nom de le Chapitre , l'autre sous le nom de Chapitre Suivant 
 </t>
         </is>
